--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622C19D-7090-4490-83D1-CE3F48A87EB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80368938-A5F8-43A3-8A68-9B62E936958E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="140">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,22 @@
   </si>
   <si>
     <t>/html/body/div[1]/div[1]/div/div/div/div[3]/div[1]/div/div[2]/div/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作平台-进入延长羁押业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div/div/div[2]/div[9]/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywlist_page_ycjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押案件列表-点击添加案件按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,130 +1059,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1180,16 +1196,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1203,16 +1219,16 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1221,67 +1237,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
@@ -1295,39 +1311,39 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -1341,19 +1357,19 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -1364,16 +1380,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
@@ -1387,16 +1403,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -1410,16 +1426,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
@@ -1433,16 +1449,16 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -1456,16 +1472,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
@@ -1474,21 +1490,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1497,21 +1513,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
@@ -1520,101 +1536,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1625,16 +1647,16 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -1645,16 +1667,16 @@
         <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1665,16 +1687,16 @@
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1685,16 +1707,16 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1705,36 +1727,36 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1745,39 +1767,39 @@
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,116 +1807,116 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
       <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1905,16 +1927,16 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1925,16 +1947,16 @@
         <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -1945,16 +1967,16 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -1965,16 +1987,16 @@
         <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -1985,36 +2007,36 @@
         <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2025,39 +2047,39 @@
         <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2065,39 +2087,39 @@
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2105,18 +2127,58 @@
         <v>110</v>
       </c>
       <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
         <v>133</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F59" t="s">
         <v>13</v>
       </c>
     </row>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80368938-A5F8-43A3-8A68-9B62E936958E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F1A5B6-E6C9-48AB-930C-84FD6838B41C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F1A5B6-E6C9-48AB-930C-84FD6838B41C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91F9C5-221C-4776-A47D-DC404FCE7C76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延长羁押案件列表-点击添加案件按钮</t>
+    <t>延长羁押案件列表-点击添加在押人员按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +907,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -916,7 +916,7 @@
     <col min="2" max="2" width="37.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="74.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="6.875" customWidth="1"/>
   </cols>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91F9C5-221C-4776-A47D-DC404FCE7C76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EB9922-B125-4038-8098-D6B8B1308ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="148">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,38 @@
   </si>
   <si>
     <t>延长羁押案件列表-点击添加在押人员按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押案件列表-已办案件按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taq_ycjy_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-提案器页面-嫌疑人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqGridBaseTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-提案器页面-嫌疑人列表单选按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/table/tbody/tr[1]/td[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-提案器页面-确认添加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqButtonSave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,16 +936,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
@@ -1168,44 +1200,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1219,16 +1251,16 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1242,16 +1274,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1265,16 +1297,16 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1283,96 +1315,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
+      <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1380,16 +1412,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
@@ -1403,16 +1435,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -1421,21 +1453,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
@@ -1449,19 +1481,19 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -1472,16 +1504,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
@@ -1495,16 +1527,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1518,16 +1550,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
@@ -1536,21 +1568,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -1559,21 +1591,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -1582,421 +1614,433 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2007,16 +2051,16 @@
         <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2027,16 +2071,16 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2047,36 +2091,36 @@
         <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2087,19 +2131,19 @@
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2107,19 +2151,19 @@
         <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2127,36 +2171,36 @@
         <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -2167,18 +2211,98 @@
         <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F63" t="s">
         <v>13</v>
       </c>
     </row>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EB9922-B125-4038-8098-D6B8B1308ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF02AD3-4ED3-438F-97DA-E3ADE0C9734F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,46 @@
   </si>
   <si>
     <t>jqButtonSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajxx_ycjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-同案人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-原羁押开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-原羁押截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqInputctar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqDatedyjyksrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqDatedyjyjzrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-送达看守所按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,7 +988,7 @@
     <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="6.875" customWidth="1"/>
   </cols>
@@ -2304,6 +2344,106 @@
       </c>
       <c r="F63" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF02AD3-4ED3-438F-97DA-E3ADE0C9734F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9A4D10-94CB-4DC4-98BF-CB7EFD057B7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="164">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,6 +638,30 @@
   </si>
   <si>
     <t>element5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewWrit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-文件管理按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押-案件信息页面-保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2444,6 +2468,46 @@
       </c>
       <c r="F68" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9A4D10-94CB-4DC4-98BF-CB7EFD057B7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E4F37-4AE9-487A-A65D-AE66EBC5F164}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E4F37-4AE9-487A-A65D-AE66EBC5F164}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6035C68B-D4DD-46A0-8967-45317FB9BB05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="177">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,57 @@
   </si>
   <si>
     <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作平台-进入换押业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div/div/div[2]/div[8]/span[1]</t>
+  </si>
+  <si>
+    <t>ywlist_page_wshy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押案件列表-已办案件按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押案件列表-点击添加在押人员按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajxx_wshy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-同案人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-原羁押开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-原羁押截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-送达看守所按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-文件管理按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1178,78 +1229,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1264,15 +1315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1287,90 +1338,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1384,16 +1435,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1404,19 +1455,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1427,19 +1478,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1450,19 +1501,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1471,73 +1522,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
+      <c r="E21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1545,19 +1596,19 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -1568,16 +1619,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
@@ -1586,21 +1637,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1614,19 +1665,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
@@ -1637,16 +1688,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -1660,16 +1711,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -1683,16 +1734,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -1706,16 +1757,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -1724,21 +1775,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1747,21 +1798,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1770,64 +1821,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1835,56 +1895,56 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1895,16 +1955,16 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1915,16 +1975,16 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1935,16 +1995,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -1955,36 +2015,36 @@
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1995,19 +2055,19 @@
         <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,156 +2075,156 @@
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
       <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2175,16 +2235,16 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2195,16 +2255,16 @@
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2215,16 +2275,16 @@
         <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2235,36 +2295,36 @@
         <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -2275,19 +2335,19 @@
         <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2295,59 +2355,59 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2355,79 +2415,79 @@
         <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2435,16 +2495,16 @@
         <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2455,16 +2515,16 @@
         <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2475,19 +2535,19 @@
         <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2495,18 +2555,218 @@
         <v>148</v>
       </c>
       <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
         <v>159</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>13</v>
       </c>
     </row>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6035C68B-D4DD-46A0-8967-45317FB9BB05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E9142-A291-44B1-8C4B-CB9794800EB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E9142-A291-44B1-8C4B-CB9794800EB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E973E5-52B4-41AE-AEC3-B14175678AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="176">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[2]/form/table/tbody/tr[3]/td/div/table/tbody/tr/td[1]/div/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="jqTreeAreaFiles_ztree_6_span"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -704,15 +700,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网上换押-案件信息页面-送达看守所按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网上换押-案件信息页面-保存按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网上换押-案件信息页面-文件管理按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上换押-案件信息页面-换押移送按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,10 +1066,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1088,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1099,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1122,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1145,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1162,13 +1158,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1185,19 +1181,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1208,19 +1204,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1231,19 +1227,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1254,19 +1250,19 @@
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1274,19 +1270,19 @@
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1294,13 +1290,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1317,13 +1313,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1340,13 +1336,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1363,13 +1359,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1386,13 +1382,13 @@
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
         <v>166</v>
       </c>
-      <c r="B15" t="s">
-        <v>167</v>
-      </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1415,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1438,7 +1434,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1461,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1481,16 +1477,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1504,16 +1500,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1524,19 +1520,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
         <v>141</v>
       </c>
-      <c r="B21" t="s">
-        <v>142</v>
-      </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1545,21 +1541,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1570,19 +1566,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1599,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -1619,10 +1615,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
@@ -1642,16 +1638,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1665,10 +1661,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
@@ -1677,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
@@ -1688,10 +1684,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>15</v>
@@ -1711,10 +1707,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>15</v>
@@ -1734,16 +1730,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -1757,16 +1753,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -1780,16 +1776,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1803,16 +1799,16 @@
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1826,16 +1822,16 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1849,16 +1845,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1869,19 +1865,19 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
@@ -1892,13 +1888,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
@@ -1912,19 +1908,19 @@
     </row>
     <row r="38" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1932,39 +1928,39 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -1972,19 +1968,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1992,19 +1988,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2012,13 +2008,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
@@ -2030,41 +2026,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -2072,19 +2068,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2092,19 +2088,19 @@
     </row>
     <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2112,19 +2108,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2132,59 +2128,59 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2192,19 +2188,19 @@
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2212,39 +2208,39 @@
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
         <v>112</v>
       </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2252,19 +2248,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -2272,19 +2268,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2292,13 +2288,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
@@ -2310,41 +2306,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -2352,19 +2348,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -2372,19 +2368,19 @@
     </row>
     <row r="61" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -2392,19 +2388,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2412,59 +2408,59 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -2472,19 +2468,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -2492,19 +2488,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
         <v>148</v>
       </c>
-      <c r="B67" t="s">
-        <v>149</v>
-      </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -2512,19 +2508,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -2532,19 +2528,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2552,13 +2548,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>12</v>
@@ -2572,13 +2568,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
         <v>156</v>
-      </c>
-      <c r="C71" t="s">
-        <v>157</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>12</v>
@@ -2592,19 +2588,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
         <v>161</v>
-      </c>
-      <c r="C72" t="s">
-        <v>162</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -2612,19 +2608,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
         <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -2632,19 +2628,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="B74" t="s">
-        <v>170</v>
-      </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2652,19 +2648,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2672,19 +2668,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2692,13 +2688,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>12</v>
@@ -2712,13 +2708,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
@@ -2732,19 +2728,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -2752,19 +2748,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -2793,7 +2789,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E973E5-52B4-41AE-AEC3-B14175678AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBAB87-01FE-45B9-A3E2-6E6E981D1063}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="config" sheetId="2" r:id="rId1"/>
     <sheet name="testdata" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBAB87-01FE-45B9-A3E2-6E6E981D1063}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA73F62-8697-424F-AA3B-5060FFB92E64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="189">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="SWFUpload_0"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/html/body/div[9]/div[1]/div[3]/button[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +705,61 @@
   </si>
   <si>
     <t>网上换押-案件信息页面-换押移送按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWFUpload_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提捕案件列表-查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//*[@id="jqInput0a4c2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提捕案件列表-嫌疑人名称查询框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywlist_page_ys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移诉案件列表-已办案件按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移诉案件列表-已办案件列表第一条案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移诉案件列表-点击添加案件按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移诉案件列表-嫌疑人名称查询框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移诉案件列表-查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqInputXyrxm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqButtonCx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,10 +1117,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1084,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1118,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1141,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1158,13 +1209,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1181,19 +1232,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1204,19 +1255,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1227,19 +1278,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1250,19 +1301,19 @@
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1270,19 +1321,19 @@
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1290,13 +1341,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1313,19 +1364,19 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1334,21 +1385,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1357,228 +1408,222 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
         <v>165</v>
       </c>
-      <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1587,165 +1632,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5</v>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1753,16 +1798,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -1776,16 +1821,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1794,21 +1839,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1822,39 +1867,39 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1863,21 +1908,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
@@ -1886,221 +1931,242 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="s">
+    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C46" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2108,139 +2174,139 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
         <v>79</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -2248,139 +2314,139 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -2388,99 +2454,99 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -2488,59 +2554,59 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -2548,59 +2614,59 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -2608,19 +2674,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -2628,19 +2694,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -2648,19 +2714,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -2668,19 +2734,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -2688,13 +2754,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>12</v>
@@ -2708,13 +2774,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
@@ -2728,19 +2794,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -2748,21 +2814,161 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2789,7 +2995,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA73F62-8697-424F-AA3B-5060FFB92E64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB78C63-8E2D-4294-95CC-11FDC0896C50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="194">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,6 +760,25 @@
   </si>
   <si>
     <t>jqButtonCx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押案件列表-嫌疑人查询框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长羁押案件列表-查询按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqButtondCX</t>
+  </si>
+  <si>
+    <t>jqInput56b3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div/div/div[2]/div[4]/span[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D1756-EB3E-48DB-96F1-2001D8947608}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,67 +1318,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,16 +1386,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1390,16 +1409,16 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1408,67 +1427,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,16 +1495,16 @@
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1499,16 +1518,16 @@
         <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1519,19 +1538,19 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1540,15 +1559,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1563,15 +1582,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1586,21 +1605,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1609,90 +1628,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1706,16 +1725,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1726,19 +1745,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1747,21 +1766,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1772,19 +1791,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1793,73 +1812,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5</v>
+      <c r="E31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1867,19 +1886,19 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
         <v>5</v>
@@ -1890,16 +1909,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1908,21 +1927,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
@@ -1936,19 +1955,19 @@
         <v>25</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
@@ -1959,16 +1978,16 @@
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
@@ -1982,16 +2001,16 @@
         <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
@@ -2005,16 +2024,16 @@
         <v>25</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
@@ -2028,16 +2047,16 @@
         <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
@@ -2046,21 +2065,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>13</v>
@@ -2069,21 +2088,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
@@ -2092,181 +2111,190 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2277,59 +2305,59 @@
         <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2337,216 +2365,216 @@
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
       <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
         <v>46</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -2557,59 +2585,59 @@
         <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2617,59 +2645,59 @@
         <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2677,79 +2705,79 @@
         <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2757,16 +2785,16 @@
         <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -2777,16 +2805,16 @@
         <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -2797,19 +2825,19 @@
         <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2817,36 +2845,36 @@
         <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -2854,42 +2882,42 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2897,16 +2925,16 @@
         <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2917,16 +2945,16 @@
         <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2937,19 +2965,19 @@
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2957,18 +2985,78 @@
         <v>167</v>
       </c>
       <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
         <v>173</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F90" t="s">
         <v>13</v>
       </c>
     </row>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB78C63-8E2D-4294-95CC-11FDC0896C50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3554CC-5CA5-4639-A1DB-A29D765D8B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="195">
   <si>
     <t>测试对象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,6 +779,10 @@
   </si>
   <si>
     <t>/html/body/div/div/div[2]/div[4]/span[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[1]/div/div/div/div[2]/div[2]/div[2]/div/div[1]/div/div[1]/table/tbody/tr/td[4]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1124,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1133,7 @@
     <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="6.875" customWidth="1"/>
   </cols>
@@ -1375,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
